--- a/Power BI/aula06/ProjetoCarro/dados.xlsx
+++ b/Power BI/aula06/ProjetoCarro/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instrutor\Downloads\Atualização-20241126T140526Z-001\Atualização\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2AF810-FE15-4998-B649-C07FD0DF3FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82CF18D-323F-444A-93CB-545506D402EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{8521509D-177C-4919-B5C2-08C499B2F967}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{8521509D-177C-4919-B5C2-08C499B2F967}"/>
   </bookViews>
   <sheets>
     <sheet name="Veiculos" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -49,9 +52,6 @@
     <t>Gol</t>
   </si>
   <si>
-    <t>https://www.grandecastanhal.com.br/assets/uploads/nt_veiculos/37891-Banner-ve--culo.png?v=0.2</t>
-  </si>
-  <si>
     <t>Polo</t>
   </si>
   <si>
@@ -61,13 +61,7 @@
     <t>T-Cross</t>
   </si>
   <si>
-    <t>https://pensecarros.com.br/cms/uploads/volkswagen-t-cross-1-0-200-tsi-total-flex-comfortline-automatico-5e4e00a6aee35.png</t>
-  </si>
-  <si>
     <t>Nivus</t>
-  </si>
-  <si>
-    <t>https://cristalvolks.com.br/assets/uploads/nt_veiculos_cores/98165-16109-Cinza-Platinum.png</t>
   </si>
   <si>
     <t>IDGerente</t>
@@ -179,6 +173,15 @@
   </si>
   <si>
     <t>IdDoAcessorio</t>
+  </si>
+  <si>
+    <t>https://toribaveiculos.com.br/wp-content/uploads/2025/01/200-TSI.png</t>
+  </si>
+  <si>
+    <t>https://alpes-hub.s3.amazonaws.com/uploads/public/68c/99e/a12/68c99ea1236d8590966610.webp</t>
+  </si>
+  <si>
+    <t>https://free.citycaraluguel.com.br/wp-content/uploads/2024/06/Polo-Track-2025_CITYCAR_branco-cristal-768x432.png</t>
   </si>
 </sst>
 </file>
@@ -544,13 +547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52294E04-3874-49C7-BCB9-4C4D2B0723C8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -581,15 +584,15 @@
         <v>70000</v>
       </c>
       <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>60000</v>
@@ -598,15 +601,15 @@
         <v>85000</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>90000</v>
@@ -614,16 +617,16 @@
       <c r="D4">
         <v>120000</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>80000</v>
@@ -632,12 +635,13 @@
         <v>110000</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{D928BDD8-3FFF-4B01-921A-1BB087C3A892}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{13239EEF-BB44-4475-AB56-A1542CF6CF2D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -651,62 +655,62 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -722,188 +726,188 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -919,32 +923,32 @@
       <selection sqref="A1:F524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -964,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -984,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1964,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2164,7 +2168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2384,7 +2388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2764,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2824,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3064,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3124,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3404,7 +3408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4004,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4084,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4344,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4484,7 +4488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4524,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4564,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4644,7 +4648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4664,7 +4668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4724,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4764,7 +4768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4784,7 +4788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4844,7 +4848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4944,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5124,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5204,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5224,7 +5228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5484,7 +5488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5564,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5624,7 +5628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5764,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5864,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6004,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6044,7 +6048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6264,7 +6268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6284,7 +6288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6344,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6364,7 +6368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6484,7 +6488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6544,7 +6548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6604,7 +6608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6664,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6724,7 +6728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6744,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6864,7 +6868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6964,7 +6968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7024,7 +7028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7244,7 +7248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7284,7 +7288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7304,7 +7308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7324,7 +7328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7444,7 +7448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7544,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7604,7 +7608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7644,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7664,7 +7668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7684,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7764,7 +7768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7804,7 +7808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7844,7 +7848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7864,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7884,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7944,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7964,7 +7968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -8004,7 +8008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -8024,7 +8028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -8104,7 +8108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -8164,7 +8168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -8204,7 +8208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -8244,7 +8248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -8284,7 +8288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -8304,7 +8308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -8324,7 +8328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -8344,7 +8348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -8464,7 +8468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -8604,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -8644,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -8684,7 +8688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -8804,7 +8808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -8824,7 +8828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -8844,7 +8848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8904,7 +8908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -8944,7 +8948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -9004,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -9024,7 +9028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -9044,7 +9048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -9124,7 +9128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -9164,7 +9168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -9184,7 +9188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -9204,7 +9208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -9264,7 +9268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -9284,7 +9288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -9304,7 +9308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -9324,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -9364,7 +9368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -9384,7 +9388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -9404,7 +9408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -9424,7 +9428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -9484,7 +9488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -9504,7 +9508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -9564,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -9584,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -9664,7 +9668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -9684,7 +9688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -9704,7 +9708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -9724,7 +9728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -9764,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -9784,7 +9788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -9804,7 +9808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -9844,7 +9848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -9884,7 +9888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -9924,7 +9928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -9944,7 +9948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -9984,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -10084,7 +10088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -10104,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -10124,7 +10128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -10144,7 +10148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -10164,7 +10168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -10204,7 +10208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -10244,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -10284,7 +10288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -10304,7 +10308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -10324,7 +10328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -10344,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -10364,7 +10368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -10424,7 +10428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -10444,7 +10448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -10464,7 +10468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -10524,7 +10528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -10544,7 +10548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -10564,7 +10568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -10584,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -10604,7 +10608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -10624,7 +10628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -10644,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -10664,7 +10668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -10684,7 +10688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -10704,7 +10708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -10724,7 +10728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -10744,7 +10748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -10764,7 +10768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -10784,7 +10788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -10804,7 +10808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -10824,7 +10828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -10844,7 +10848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -10864,7 +10868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -10884,7 +10888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -10904,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -10924,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -10944,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -10964,7 +10968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -10984,7 +10988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -11004,7 +11008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -11024,7 +11028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -11044,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -11064,7 +11068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -11084,7 +11088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -11104,7 +11108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -11124,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -11144,7 +11148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -11224,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -11244,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -11284,7 +11288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -11304,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -11324,7 +11328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -11344,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -11364,7 +11368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -11384,7 +11388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -11413,24 +11417,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E93951-C34E-4FFD-B007-DC2187860B44}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11441,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11452,7 +11456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11463,7 +11467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11474,7 +11478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11485,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11496,7 +11500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11518,7 +11522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11529,7 +11533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11551,7 +11555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11562,7 +11566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11573,7 +11577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11595,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11606,7 +11610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11617,7 +11621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11628,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11639,7 +11643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11661,7 +11665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11672,7 +11676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11683,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11694,7 +11698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11705,7 +11709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11716,7 +11720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11727,7 +11731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11738,7 +11742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11771,7 +11775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11782,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11793,7 +11797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11804,7 +11808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11815,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
